--- a/exercise02/solution/benchmarks/bench_kuro.xlsx
+++ b/exercise02/solution/benchmarks/bench_kuro.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLORIANI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED75ABD3-62B7-4B61-9532-54B56FD6C7F3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED4D04F-0FBE-42B3-9EE6-BFBA3F95801B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="bench_kuro" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="3" r:id="rId1"/>
+    <sheet name="bench_kuro" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId3"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="24">
   <si>
     <t>Round</t>
   </si>
@@ -69,13 +80,38 @@
   <si>
     <t>Median</t>
   </si>
+  <si>
+    <t>Zeilenbeschriftungen</t>
+  </si>
+  <si>
+    <t>Gesamtergebnis</t>
+  </si>
+  <si>
+    <t>Mittelwert von CPU-Time</t>
+  </si>
+  <si>
+    <t>Mittelwert von User-Time</t>
+  </si>
+  <si>
+    <t>Mittelwert von Realtime</t>
+  </si>
+  <si>
+    <t>Mittelwert von Cycles</t>
+  </si>
+  <si>
+    <t>Mittelwert von Instructions</t>
+  </si>
+  <si>
+    <t>Mittelwert von Cache-misses</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -554,7 +590,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -562,6 +598,15 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -618,6 +663,2164 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Daniel Linter" refreshedDate="43396.959203009261" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="175" xr:uid="{45429C5E-B473-4B7A-89D8-11FDAAEA4289}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:I176" sheet="bench_kuro"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="Round" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
+    </cacheField>
+    <cacheField name="Executable" numFmtId="0">
+      <sharedItems count="5">
+        <s v="mmul1"/>
+        <s v="mmul2"/>
+        <s v="mmul3"/>
+        <s v="mmul_utm"/>
+        <s v="mmul_utm_omp"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Size" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="128" maxValue="2048" count="5">
+        <n v="1024"/>
+        <n v="128"/>
+        <n v="2048"/>
+        <n v="256"/>
+        <n v="512"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CPU-Time" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.0245609999999998E-3" maxValue="12.560503865999999"/>
+    </cacheField>
+    <cacheField name="User-Time" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="12.25"/>
+    </cacheField>
+    <cacheField name="Realtime" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="12.19"/>
+    </cacheField>
+    <cacheField name="Cycles" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7005820" maxValue="40116134267"/>
+    </cacheField>
+    <cacheField name="Instructions" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12618171" maxValue="86190873792"/>
+    </cacheField>
+    <cacheField name="Cache-misses" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15815" maxValue="97452931"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="175">
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.84191981699999996"/>
+    <n v="0.85"/>
+    <n v="0.84"/>
+    <n v="2709686348"/>
+    <n v="4379361371"/>
+    <n v="6206188"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4.9804599999999999E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="8569580"/>
+    <n v="12817815"/>
+    <n v="18277"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="7.4419371710000002"/>
+    <n v="7.69"/>
+    <n v="7.63"/>
+    <n v="23964823481"/>
+    <n v="34682349542"/>
+    <n v="82591073"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1.9518170000000001E-2"/>
+    <n v="0.02"/>
+    <n v="0.01"/>
+    <n v="43505149"/>
+    <n v="75367362"/>
+    <n v="38604"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="0.10168216099999999"/>
+    <n v="0.1"/>
+    <n v="0.09"/>
+    <n v="304175502"/>
+    <n v="560193721"/>
+    <n v="134028"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.4919295079999999"/>
+    <n v="1.48"/>
+    <n v="1.47"/>
+    <n v="4790066917"/>
+    <n v="10804306898"/>
+    <n v="4530583"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7.6510909999999996E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="13251205"/>
+    <n v="25035205"/>
+    <n v="18078"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="12.145748051"/>
+    <n v="12.16"/>
+    <n v="12.11"/>
+    <n v="39145687828"/>
+    <n v="86178043924"/>
+    <n v="56323428"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="3.1308853999999997E-2"/>
+    <n v="0.02"/>
+    <n v="0.02"/>
+    <n v="81187233"/>
+    <n v="174727409"/>
+    <n v="37950"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.186502263"/>
+    <n v="0.17"/>
+    <n v="0.17"/>
+    <n v="581171511"/>
+    <n v="1361077167"/>
+    <n v="133622"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.82567955800000004"/>
+    <n v="0.84"/>
+    <n v="0.82"/>
+    <n v="2639179599"/>
+    <n v="4373746610"/>
+    <n v="5722155"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="4.2737540000000003E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7162885"/>
+    <n v="12645704"/>
+    <n v="18326"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="7.6413762170000004"/>
+    <n v="7.41"/>
+    <n v="7.35"/>
+    <n v="24318318169"/>
+    <n v="34680194488"/>
+    <n v="84299012"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1.9535864E-2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <n v="43333929"/>
+    <n v="74908411"/>
+    <n v="38389"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="9.8517775000000002E-2"/>
+    <n v="0.1"/>
+    <n v="0.09"/>
+    <n v="294415114"/>
+    <n v="558755006"/>
+    <n v="129673"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.71365057300000001"/>
+    <n v="0.7"/>
+    <n v="0.69"/>
+    <n v="2283857146"/>
+    <n v="4879643598"/>
+    <n v="1373305"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="4.6417330000000003E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7714001"/>
+    <n v="13099137"/>
+    <n v="16130"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="6.1995050430000003"/>
+    <n v="6.13"/>
+    <n v="6.09"/>
+    <n v="19836332398"/>
+    <n v="38841698819"/>
+    <n v="44282604"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="1.7709658E-2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <n v="39592976"/>
+    <n v="81437259"/>
+    <n v="36549"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="9.6227493999999997E-2"/>
+    <n v="0.1"/>
+    <n v="0.09"/>
+    <n v="287690900"/>
+    <n v="618366566"/>
+    <n v="131387"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.18469738399999999"/>
+    <n v="0.17"/>
+    <n v="1.1499999999999999"/>
+    <n v="3673588216"/>
+    <n v="4915242999"/>
+    <n v="955034"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="4.2698149999999997E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="25983106"/>
+    <n v="19875291"/>
+    <n v="23169"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="1.414043392"/>
+    <n v="1.4"/>
+    <n v="9.74"/>
+    <n v="31067552726"/>
+    <n v="38881947228"/>
+    <n v="12981319"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="9.1174340000000006E-3"/>
+    <n v="0"/>
+    <n v="0.03"/>
+    <n v="94887758"/>
+    <n v="96230660"/>
+    <n v="43662"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="3.0314081E-2"/>
+    <n v="0.03"/>
+    <n v="0.14000000000000001"/>
+    <n v="507011054"/>
+    <n v="636208979"/>
+    <n v="148288"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.83029414000000001"/>
+    <n v="0.82"/>
+    <n v="0.8"/>
+    <n v="2644015822"/>
+    <n v="4376509513"/>
+    <n v="5667862"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4.4017800000000001E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7360143"/>
+    <n v="12847628"/>
+    <n v="18305"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="7.4776643549999999"/>
+    <n v="7.46"/>
+    <n v="7.41"/>
+    <n v="24023284335"/>
+    <n v="34684483638"/>
+    <n v="81787529"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1.8602442E-2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <n v="41913718"/>
+    <n v="75407317"/>
+    <n v="38356"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="9.9615157999999995E-2"/>
+    <n v="0.09"/>
+    <n v="0.09"/>
+    <n v="302918173"/>
+    <n v="559798513"/>
+    <n v="128399"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.4839088220000001"/>
+    <n v="1.48"/>
+    <n v="1.47"/>
+    <n v="4806401424"/>
+    <n v="10809153492"/>
+    <n v="4796990"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7.5571409999999999E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="13008326"/>
+    <n v="25017128"/>
+    <n v="17723"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="12.101736018"/>
+    <n v="12.18"/>
+    <n v="12.13"/>
+    <n v="38944295683"/>
+    <n v="86167564609"/>
+    <n v="55471276"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="2.9778862E-2"/>
+    <n v="0.03"/>
+    <n v="0.03"/>
+    <n v="77109320"/>
+    <n v="174859127"/>
+    <n v="38139"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.18227663099999999"/>
+    <n v="0.17"/>
+    <n v="0.17"/>
+    <n v="569511845"/>
+    <n v="1360972221"/>
+    <n v="130458"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.82526218500000004"/>
+    <n v="0.82"/>
+    <n v="0.81"/>
+    <n v="2643600298"/>
+    <n v="4374553085"/>
+    <n v="5599718"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="4.2960979999999999E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7063205"/>
+    <n v="12618171"/>
+    <n v="17827"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="7.5183978969999998"/>
+    <n v="7.84"/>
+    <n v="7.78"/>
+    <n v="24123273125"/>
+    <n v="34673224473"/>
+    <n v="88778275"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1.9288835000000001E-2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <n v="42883199"/>
+    <n v="75021513"/>
+    <n v="37901"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="0.10669959399999999"/>
+    <n v="0.09"/>
+    <n v="0.09"/>
+    <n v="304963034"/>
+    <n v="559105882"/>
+    <n v="136893"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.73364110599999999"/>
+    <n v="0.75"/>
+    <n v="0.73"/>
+    <n v="2327789846"/>
+    <n v="4881867770"/>
+    <n v="1462502"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="3.0245609999999998E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="8342111"/>
+    <n v="13134250"/>
+    <n v="15815"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="6.5011855839999999"/>
+    <n v="6.39"/>
+    <n v="6.32"/>
+    <n v="20569436325"/>
+    <n v="38848258734"/>
+    <n v="45388836"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="1.505895E-2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <n v="40947973"/>
+    <n v="81540651"/>
+    <n v="40350"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="9.3311846000000004E-2"/>
+    <n v="0.09"/>
+    <n v="0.09"/>
+    <n v="296249895"/>
+    <n v="618637325"/>
+    <n v="143892"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.17994631699999999"/>
+    <n v="0.17"/>
+    <n v="1.18"/>
+    <n v="3672924947"/>
+    <n v="4904057179"/>
+    <n v="901803"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="3.4105260000000001E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="14239803"/>
+    <n v="14777132"/>
+    <n v="24757"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="1.6715149170000001"/>
+    <n v="1.67"/>
+    <n v="10.4"/>
+    <n v="32398951070"/>
+    <n v="38898968632"/>
+    <n v="21218068"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="8.5980410000000007E-3"/>
+    <n v="0"/>
+    <n v="0.03"/>
+    <n v="117570631"/>
+    <n v="105026711"/>
+    <n v="46071"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="2.9073412E-2"/>
+    <n v="0.02"/>
+    <n v="0.17"/>
+    <n v="502455740"/>
+    <n v="636452923"/>
+    <n v="146378"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.89867333100000002"/>
+    <n v="0.86"/>
+    <n v="0.86"/>
+    <n v="2849204834"/>
+    <n v="4376619672"/>
+    <n v="7949750"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4.1426689999999999E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7352034"/>
+    <n v="12830756"/>
+    <n v="19638"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="7.9295989369999997"/>
+    <n v="8.1300000000000008"/>
+    <n v="8.09"/>
+    <n v="25349981876"/>
+    <n v="34686309603"/>
+    <n v="97452931"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1.9204160000000001E-2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <n v="43657687"/>
+    <n v="75392747"/>
+    <n v="43144"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="0.100932602"/>
+    <n v="0.09"/>
+    <n v="0.09"/>
+    <n v="301184862"/>
+    <n v="560138717"/>
+    <n v="147919"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.4873548050000001"/>
+    <n v="1.47"/>
+    <n v="1.47"/>
+    <n v="4788849153"/>
+    <n v="10806745110"/>
+    <n v="4565042"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7.0949539999999997E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="13286364"/>
+    <n v="25102441"/>
+    <n v="18677"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="12.560503865999999"/>
+    <n v="12.22"/>
+    <n v="12.17"/>
+    <n v="40116134267"/>
+    <n v="86190873792"/>
+    <n v="57878242"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="2.9980667999999999E-2"/>
+    <n v="0.02"/>
+    <n v="0.02"/>
+    <n v="77414472"/>
+    <n v="174892332"/>
+    <n v="39278"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.18628426100000001"/>
+    <n v="0.18"/>
+    <n v="0.18"/>
+    <n v="578720467"/>
+    <n v="1361502384"/>
+    <n v="130870"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.86174357599999996"/>
+    <n v="0.82"/>
+    <n v="0.81"/>
+    <n v="2731170308"/>
+    <n v="4373743684"/>
+    <n v="6089123"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="4.2751769999999998E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7005820"/>
+    <n v="12637328"/>
+    <n v="17654"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="7.4507331370000003"/>
+    <n v="7.31"/>
+    <n v="7.27"/>
+    <n v="23924299442"/>
+    <n v="34672806488"/>
+    <n v="85373926"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1.9054208E-2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <n v="42108718"/>
+    <n v="74901234"/>
+    <n v="38101"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="9.5868010000000004E-2"/>
+    <n v="0.09"/>
+    <n v="0.09"/>
+    <n v="292557249"/>
+    <n v="558727590"/>
+    <n v="128129"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.71473208300000002"/>
+    <n v="0.71"/>
+    <n v="0.7"/>
+    <n v="2269591859"/>
+    <n v="4879592025"/>
+    <n v="1228097"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="4.6192890000000004E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7628772"/>
+    <n v="13087624"/>
+    <n v="16329"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="6.1983585269999999"/>
+    <n v="6.16"/>
+    <n v="6.12"/>
+    <n v="19821005424"/>
+    <n v="38838901726"/>
+    <n v="44166898"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="1.9626562E-2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <n v="42708199"/>
+    <n v="81524064"/>
+    <n v="36328"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="9.3875793999999999E-2"/>
+    <n v="0.09"/>
+    <n v="0.09"/>
+    <n v="285518606"/>
+    <n v="618344984"/>
+    <n v="125395"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.17807673199999999"/>
+    <n v="0.17"/>
+    <n v="1.17"/>
+    <n v="3723370931"/>
+    <n v="4906975603"/>
+    <n v="849647"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="4.0330920000000003E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="22283824"/>
+    <n v="18287737"/>
+    <n v="23162"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="1.4255027250000001"/>
+    <n v="1.44"/>
+    <n v="9.92"/>
+    <n v="31157378437"/>
+    <n v="38892375921"/>
+    <n v="12431976"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="7.9416539999999994E-3"/>
+    <n v="0"/>
+    <n v="0.03"/>
+    <n v="95551808"/>
+    <n v="95505008"/>
+    <n v="43033"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="2.8543600999999998E-2"/>
+    <n v="0.02"/>
+    <n v="0.15"/>
+    <n v="495787902"/>
+    <n v="631006464"/>
+    <n v="138229"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.84374321900000004"/>
+    <n v="0.85"/>
+    <n v="0.83"/>
+    <n v="2673568763"/>
+    <n v="4376673991"/>
+    <n v="5609197"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4.3800050000000002E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7362734"/>
+    <n v="12825922"/>
+    <n v="17695"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="7.6829768339999998"/>
+    <n v="7.4"/>
+    <n v="7.35"/>
+    <n v="24479320538"/>
+    <n v="34686197417"/>
+    <n v="82367167"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1.8834466000000001E-2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <n v="41850421"/>
+    <n v="75326830"/>
+    <n v="37571"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="9.7373306000000007E-2"/>
+    <n v="0.09"/>
+    <n v="0.09"/>
+    <n v="297803388"/>
+    <n v="560107664"/>
+    <n v="126130"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.491160517"/>
+    <n v="1.48"/>
+    <n v="1.47"/>
+    <n v="4747423480"/>
+    <n v="10804178899"/>
+    <n v="4490552"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7.54216E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="12924961"/>
+    <n v="24999263"/>
+    <n v="17674"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="12.091527194999999"/>
+    <n v="12.09"/>
+    <n v="12.04"/>
+    <n v="38988830873"/>
+    <n v="86168647644"/>
+    <n v="55508976"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="3.0216323E-2"/>
+    <n v="0.03"/>
+    <n v="0.02"/>
+    <n v="76474215"/>
+    <n v="174760399"/>
+    <n v="37160"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.18118710800000001"/>
+    <n v="0.18"/>
+    <n v="0.18"/>
+    <n v="566672883"/>
+    <n v="1360967105"/>
+    <n v="131400"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.82980255599999997"/>
+    <n v="0.83"/>
+    <n v="0.81"/>
+    <n v="2648749825"/>
+    <n v="4373751831"/>
+    <n v="6118110"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="4.3501269999999996E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7189894"/>
+    <n v="12628014"/>
+    <n v="17820"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="7.3434419420000001"/>
+    <n v="7.34"/>
+    <n v="7.3"/>
+    <n v="23659803634"/>
+    <n v="34678185306"/>
+    <n v="81790278"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1.8702798999999999E-2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <n v="41906859"/>
+    <n v="74982964"/>
+    <n v="37996"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="9.9074306000000001E-2"/>
+    <n v="0.09"/>
+    <n v="0.09"/>
+    <n v="298378736"/>
+    <n v="558669986"/>
+    <n v="126186"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.71127140200000005"/>
+    <n v="0.7"/>
+    <n v="0.69"/>
+    <n v="2275531807"/>
+    <n v="4879591655"/>
+    <n v="1333199"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="4.5449119999999999E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7691990"/>
+    <n v="13084534"/>
+    <n v="16486"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="6.2024132339999998"/>
+    <n v="6.19"/>
+    <n v="6.15"/>
+    <n v="19969481537"/>
+    <n v="38849025052"/>
+    <n v="45264969"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="1.9317022999999999E-2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <n v="42731320"/>
+    <n v="81506133"/>
+    <n v="36525"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="9.3677424999999995E-2"/>
+    <n v="0.09"/>
+    <n v="0.08"/>
+    <n v="284742388"/>
+    <n v="618337130"/>
+    <n v="126721"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.17408915999999999"/>
+    <n v="0.17"/>
+    <n v="1.17"/>
+    <n v="3708649206"/>
+    <n v="4903581789"/>
+    <n v="834010"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="3.8847980000000001E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="22760057"/>
+    <n v="18545380"/>
+    <n v="23280"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="1.4385263619999999"/>
+    <n v="1.39"/>
+    <n v="9.82"/>
+    <n v="31251657823"/>
+    <n v="38892675594"/>
+    <n v="14749121"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="6.9108499999999996E-3"/>
+    <n v="0"/>
+    <n v="0.02"/>
+    <n v="71511263"/>
+    <n v="85086315"/>
+    <n v="43022"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="2.7936699999999998E-2"/>
+    <n v="0.02"/>
+    <n v="0.15"/>
+    <n v="484597170"/>
+    <n v="626992293"/>
+    <n v="139149"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.84554040200000002"/>
+    <n v="0.83"/>
+    <n v="0.81"/>
+    <n v="2665891920"/>
+    <n v="4377494144"/>
+    <n v="5897477"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4.6135120000000002E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7697356"/>
+    <n v="12862038"/>
+    <n v="17866"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="7.5228681240000004"/>
+    <n v="7.46"/>
+    <n v="7.4"/>
+    <n v="24124635048"/>
+    <n v="34682273121"/>
+    <n v="81091137"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1.8788717999999999E-2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <n v="42742723"/>
+    <n v="75368683"/>
+    <n v="39503"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="9.7187359000000001E-2"/>
+    <n v="0.1"/>
+    <n v="0.09"/>
+    <n v="296223341"/>
+    <n v="559873099"/>
+    <n v="126385"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.4949419319999999"/>
+    <n v="1.48"/>
+    <n v="1.46"/>
+    <n v="4792811536"/>
+    <n v="10805665991"/>
+    <n v="4696902"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7.48287E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="12981689"/>
+    <n v="25032968"/>
+    <n v="17794"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="12.134558342"/>
+    <n v="12.13"/>
+    <n v="12.08"/>
+    <n v="38973724723"/>
+    <n v="86170736460"/>
+    <n v="55410998"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="2.9658845E-2"/>
+    <n v="0.03"/>
+    <n v="0.02"/>
+    <n v="76568510"/>
+    <n v="174771537"/>
+    <n v="38421"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.18413806699999999"/>
+    <n v="0.18"/>
+    <n v="0.18"/>
+    <n v="566878736"/>
+    <n v="1360939162"/>
+    <n v="134492"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.83340390900000005"/>
+    <n v="0.82"/>
+    <n v="0.8"/>
+    <n v="2693946817"/>
+    <n v="4373736036"/>
+    <n v="5622332"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="4.5915110000000004E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7530074"/>
+    <n v="12669403"/>
+    <n v="20080"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="7.3957776260000001"/>
+    <n v="7.65"/>
+    <n v="7.56"/>
+    <n v="23759134236"/>
+    <n v="34675795279"/>
+    <n v="83033790"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1.8434276999999999E-2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <n v="41168929"/>
+    <n v="74850210"/>
+    <n v="38180"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="9.5664763999999999E-2"/>
+    <n v="0.09"/>
+    <n v="0.09"/>
+    <n v="292000998"/>
+    <n v="558728228"/>
+    <n v="126289"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.72686743200000004"/>
+    <n v="0.73"/>
+    <n v="0.73"/>
+    <n v="2341753392"/>
+    <n v="4881981139"/>
+    <n v="1463272"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="4.746994E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7854715"/>
+    <n v="13062542"/>
+    <n v="16398"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="6.1979353660000003"/>
+    <n v="6.17"/>
+    <n v="6.12"/>
+    <n v="20055276465"/>
+    <n v="38854848910"/>
+    <n v="45812241"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="1.8289639E-2"/>
+    <n v="0.01"/>
+    <n v="0"/>
+    <n v="40253120"/>
+    <n v="81480190"/>
+    <n v="36635"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="9.4593176000000001E-2"/>
+    <n v="0.09"/>
+    <n v="0.09"/>
+    <n v="286754111"/>
+    <n v="618664594"/>
+    <n v="127616"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.17709303700000001"/>
+    <n v="0.17"/>
+    <n v="1.17"/>
+    <n v="3737867696"/>
+    <n v="4914498700"/>
+    <n v="863172"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="4.3957199999999997E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="28321990"/>
+    <n v="20899828"/>
+    <n v="23460"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="1.462456252"/>
+    <n v="1.41"/>
+    <n v="9.84"/>
+    <n v="31597293740"/>
+    <n v="38881093799"/>
+    <n v="16428840"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="7.3776500000000004E-3"/>
+    <n v="0"/>
+    <n v="0.03"/>
+    <n v="79209236"/>
+    <n v="88418998"/>
+    <n v="43178"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="2.7351611000000001E-2"/>
+    <n v="0.02"/>
+    <n v="0.16"/>
+    <n v="478026968"/>
+    <n v="624403286"/>
+    <n v="139251"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.82540340099999998"/>
+    <n v="0.86"/>
+    <n v="0.84"/>
+    <n v="2656145048"/>
+    <n v="4376614133"/>
+    <n v="5387901"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4.3821479999999998E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7210451"/>
+    <n v="12835467"/>
+    <n v="17908"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="7.4481786039999998"/>
+    <n v="7.51"/>
+    <n v="7.45"/>
+    <n v="23978349499"/>
+    <n v="34686118431"/>
+    <n v="82498308"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1.8872024000000001E-2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <n v="41889072"/>
+    <n v="75339465"/>
+    <n v="38280"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="9.7496365000000001E-2"/>
+    <n v="0.1"/>
+    <n v="0.1"/>
+    <n v="296164681"/>
+    <n v="559813599"/>
+    <n v="129394"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.513722397"/>
+    <n v="1.47"/>
+    <n v="1.45"/>
+    <n v="4761897206"/>
+    <n v="10805146041"/>
+    <n v="4448651"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7.5578080000000001E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="12993286"/>
+    <n v="25011043"/>
+    <n v="18262"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="12.144729766999999"/>
+    <n v="12.05"/>
+    <n v="12.01"/>
+    <n v="39004369295"/>
+    <n v="86170355153"/>
+    <n v="55573918"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="2.9767159000000001E-2"/>
+    <n v="0.02"/>
+    <n v="0.02"/>
+    <n v="78112481"/>
+    <n v="174702892"/>
+    <n v="37721"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.18188057099999999"/>
+    <n v="0.18"/>
+    <n v="0.17"/>
+    <n v="565811489"/>
+    <n v="1360899198"/>
+    <n v="130508"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.82480327399999998"/>
+    <n v="0.82"/>
+    <n v="0.8"/>
+    <n v="2641747501"/>
+    <n v="4373756390"/>
+    <n v="5944342"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="4.2189630000000001E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7121026"/>
+    <n v="12661779"/>
+    <n v="17961"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="7.5140441019999997"/>
+    <n v="7.38"/>
+    <n v="7.33"/>
+    <n v="23979365427"/>
+    <n v="34676053380"/>
+    <n v="82904822"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1.8912542000000001E-2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <n v="41477287"/>
+    <n v="74908924"/>
+    <n v="37863"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="9.6103393999999995E-2"/>
+    <n v="0.09"/>
+    <n v="0.09"/>
+    <n v="291239629"/>
+    <n v="558729651"/>
+    <n v="128800"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.73339777900000003"/>
+    <n v="0.74"/>
+    <n v="0.72"/>
+    <n v="2318285397"/>
+    <n v="4880778941"/>
+    <n v="1230832"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="4.5086570000000001E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7738524"/>
+    <n v="13104513"/>
+    <n v="16338"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="6.2492441510000001"/>
+    <n v="6.17"/>
+    <n v="6.12"/>
+    <n v="20014409910"/>
+    <n v="38841777478"/>
+    <n v="44223985"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="1.7967924999999999E-2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <n v="39827708"/>
+    <n v="81454619"/>
+    <n v="36257"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="9.5909543999999999E-2"/>
+    <n v="0.09"/>
+    <n v="0.08"/>
+    <n v="290022258"/>
+    <n v="618400623"/>
+    <n v="132838"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.176530459"/>
+    <n v="0.17"/>
+    <n v="1.17"/>
+    <n v="3701423466"/>
+    <n v="4899787192"/>
+    <n v="913810"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="4.4070209999999997E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="28967422"/>
+    <n v="21245900"/>
+    <n v="22925"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="1.412221532"/>
+    <n v="1.4"/>
+    <n v="9.7899999999999991"/>
+    <n v="30956510853"/>
+    <n v="38883825452"/>
+    <n v="12060754"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="6.3344259999999998E-3"/>
+    <n v="0"/>
+    <n v="0.03"/>
+    <n v="66644372"/>
+    <n v="83457786"/>
+    <n v="42784"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="2.9488066E-2"/>
+    <n v="0.02"/>
+    <n v="0.15"/>
+    <n v="493685981"/>
+    <n v="631378609"/>
+    <n v="140568"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.82259162699999999"/>
+    <n v="0.82"/>
+    <n v="0.81"/>
+    <n v="2654325245"/>
+    <n v="4376675177"/>
+    <n v="5409476"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4.2881719999999998E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7313198"/>
+    <n v="12875470"/>
+    <n v="17861"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="7.4642932650000002"/>
+    <n v="7.43"/>
+    <n v="7.38"/>
+    <n v="23936246361"/>
+    <n v="34681310680"/>
+    <n v="83977140"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1.9562086999999999E-2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <n v="42549671"/>
+    <n v="75344231"/>
+    <n v="38113"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="9.9647521000000003E-2"/>
+    <n v="0.09"/>
+    <n v="0.09"/>
+    <n v="303680286"/>
+    <n v="559831130"/>
+    <n v="127407"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.4894075659999999"/>
+    <n v="1.47"/>
+    <n v="1.46"/>
+    <n v="4753688320"/>
+    <n v="10804429278"/>
+    <n v="4423359"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7.0613230000000004E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="13335582"/>
+    <n v="25020902"/>
+    <n v="17462"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="12.232616585000001"/>
+    <n v="12.25"/>
+    <n v="12.19"/>
+    <n v="39196013208"/>
+    <n v="86183365562"/>
+    <n v="56710112"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="3.0527909999999998E-2"/>
+    <n v="0.02"/>
+    <n v="0.02"/>
+    <n v="79196797"/>
+    <n v="174874786"/>
+    <n v="37804"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.183110459"/>
+    <n v="0.17"/>
+    <n v="0.17"/>
+    <n v="570036068"/>
+    <n v="1360943808"/>
+    <n v="139748"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.82001290999999998"/>
+    <n v="0.82"/>
+    <n v="0.8"/>
+    <n v="2631499298"/>
+    <n v="4373553526"/>
+    <n v="5768044"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="4.1819220000000002E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7160228"/>
+    <n v="12658336"/>
+    <n v="17816"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="7.355143988"/>
+    <n v="7.52"/>
+    <n v="7.48"/>
+    <n v="23608974047"/>
+    <n v="34671290499"/>
+    <n v="84234779"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1.8202249E-2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <n v="41248016"/>
+    <n v="74873419"/>
+    <n v="38510"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="9.7100192000000002E-2"/>
+    <n v="0.09"/>
+    <n v="0.09"/>
+    <n v="291508119"/>
+    <n v="558798356"/>
+    <n v="132854"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.70537544699999999"/>
+    <n v="0.71"/>
+    <n v="0.7"/>
+    <n v="2264662874"/>
+    <n v="4879575743"/>
+    <n v="1111771"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="4.6707509999999999E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7760669"/>
+    <n v="13130754"/>
+    <n v="16437"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="6.2151525750000003"/>
+    <n v="6.19"/>
+    <n v="6.14"/>
+    <n v="20042944358"/>
+    <n v="38854636197"/>
+    <n v="45695616"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="1.8236149E-2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <n v="40243620"/>
+    <n v="81349048"/>
+    <n v="36495"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="9.6791921000000003E-2"/>
+    <n v="0.09"/>
+    <n v="0.09"/>
+    <n v="291520001"/>
+    <n v="618275723"/>
+    <n v="127920"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.17805532900000001"/>
+    <n v="0.17"/>
+    <n v="1.17"/>
+    <n v="3707819964"/>
+    <n v="4905083094"/>
+    <n v="892775"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="4.1152259999999996E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="29588474"/>
+    <n v="21421797"/>
+    <n v="25699"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="1.4182634869999999"/>
+    <n v="1.4"/>
+    <n v="9.83"/>
+    <n v="31126871572"/>
+    <n v="38882514187"/>
+    <n v="13666754"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="6.0554659999999998E-3"/>
+    <n v="0"/>
+    <n v="0.02"/>
+    <n v="79566891"/>
+    <n v="88935409"/>
+    <n v="44117"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="2.9206059999999999E-2"/>
+    <n v="0.02"/>
+    <n v="0.15"/>
+    <n v="509323812"/>
+    <n v="638341206"/>
+    <n v="141930"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36929EFF-7B90-4908-BB9C-B399D0958A19}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G34" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="31">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+  </colItems>
+  <dataFields count="6">
+    <dataField name="Mittelwert von CPU-Time" fld="3" subtotal="average" baseField="1" baseItem="0" numFmtId="165"/>
+    <dataField name="Mittelwert von User-Time" fld="4" subtotal="average" baseField="1" baseItem="0" numFmtId="165"/>
+    <dataField name="Mittelwert von Realtime" fld="5" subtotal="average" baseField="1" baseItem="0" numFmtId="165"/>
+    <dataField name="Mittelwert von Cycles" fld="6" subtotal="average" baseField="1" baseItem="0" numFmtId="165"/>
+    <dataField name="Mittelwert von Instructions" fld="7" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="Mittelwert von Cache-misses" fld="8" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -916,22 +3119,783 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72108261-2BBA-47B3-8743-86AA3AAE9970}">
+  <dimension ref="A3:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1.4178308658571428</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1.4042857142857141</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1.391142857142857</v>
+      </c>
+      <c r="E4" s="11">
+        <v>4535825502.7142859</v>
+      </c>
+      <c r="F4" s="9">
+        <v>8888091430</v>
+      </c>
+      <c r="G4" s="9">
+        <v>9295056.228571428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>128</v>
+      </c>
+      <c r="B5" s="11">
+        <v>4.3938424285714286E-3</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>7818683.1428571427</v>
+      </c>
+      <c r="F5" s="9">
+        <v>13100479.142857144</v>
+      </c>
+      <c r="G5" s="9">
+        <v>16276.142857142857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>256</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1.8029415142857139E-2</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="11">
+        <v>8.5714285714285719E-3</v>
+      </c>
+      <c r="E6" s="11">
+        <v>40900702.285714284</v>
+      </c>
+      <c r="F6" s="9">
+        <v>81470280.571428567</v>
+      </c>
+      <c r="G6" s="9">
+        <v>37019.857142857145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>512</v>
+      </c>
+      <c r="B7" s="11">
+        <v>9.4912457142857135E-2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>9.1428571428571415E-2</v>
+      </c>
+      <c r="D7" s="11">
+        <v>8.7142857142857147E-2</v>
+      </c>
+      <c r="E7" s="11">
+        <v>288928308.4285714</v>
+      </c>
+      <c r="F7" s="9">
+        <v>618432420.71428573</v>
+      </c>
+      <c r="G7" s="9">
+        <v>130824.14285714286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>1024</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0.71984797457142857</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.70857142857142852</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2297353188.7142859</v>
+      </c>
+      <c r="F8" s="9">
+        <v>4880432981.5714283</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1314711.142857143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>2048</v>
+      </c>
+      <c r="B9" s="11">
+        <v>6.2519706400000006</v>
+      </c>
+      <c r="C9" s="11">
+        <v>6.2</v>
+      </c>
+      <c r="D9" s="11">
+        <v>6.1514285714285721</v>
+      </c>
+      <c r="E9" s="11">
+        <v>20044126631</v>
+      </c>
+      <c r="F9" s="9">
+        <v>38847020988</v>
+      </c>
+      <c r="G9" s="9">
+        <v>44976449.857142858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.336393781</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.32714285714285712</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2.2508571428571424</v>
+      </c>
+      <c r="E10" s="11">
+        <v>7135138168.8285713</v>
+      </c>
+      <c r="F10" s="9">
+        <v>8907575002.3142853</v>
+      </c>
+      <c r="G10" s="9">
+        <v>3177519.8571428573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>128</v>
+      </c>
+      <c r="B11" s="11">
+        <v>4.0737425714285711E-3</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>24592096.571428571</v>
+      </c>
+      <c r="F11" s="9">
+        <v>19293295</v>
+      </c>
+      <c r="G11" s="9">
+        <v>23778.857142857141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>256</v>
+      </c>
+      <c r="B12" s="11">
+        <v>7.4765029999999998E-3</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2.7142857142857142E-2</v>
+      </c>
+      <c r="E12" s="11">
+        <v>86420279.857142851</v>
+      </c>
+      <c r="F12" s="9">
+        <v>91808698.142857149</v>
+      </c>
+      <c r="G12" s="9">
+        <v>43695.285714285717</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>512</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2.8844790142857145E-2</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2.1428571428571429E-2</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.15285714285714286</v>
+      </c>
+      <c r="E13" s="11">
+        <v>495841232.4285714</v>
+      </c>
+      <c r="F13" s="9">
+        <v>632111965.71428573</v>
+      </c>
+      <c r="G13" s="9">
+        <v>141970.42857142858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>1024</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0.17835548828571429</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1.1685714285714286</v>
+      </c>
+      <c r="E14" s="11">
+        <v>3703663489.4285712</v>
+      </c>
+      <c r="F14" s="9">
+        <v>4907032365.1428576</v>
+      </c>
+      <c r="G14" s="9">
+        <v>887178.71428571432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>2048</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1.4632183809999997</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1.4442857142857142</v>
+      </c>
+      <c r="D15" s="11">
+        <v>9.9057142857142857</v>
+      </c>
+      <c r="E15" s="11">
+        <v>31365173745.857143</v>
+      </c>
+      <c r="F15" s="9">
+        <v>38887628687.571426</v>
+      </c>
+      <c r="G15" s="9">
+        <v>14790976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1.7066911003428573</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1.706</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1.6917142857142857</v>
+      </c>
+      <c r="E16" s="11">
+        <v>5461788665.3714285</v>
+      </c>
+      <c r="F16" s="9">
+        <v>7941891103.0571432</v>
+      </c>
+      <c r="G16" s="9">
+        <v>18148969.114285715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>128</v>
+      </c>
+      <c r="B17" s="11">
+        <v>4.4555351428571428E-3</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>7552213.7142857146</v>
+      </c>
+      <c r="F17" s="9">
+        <v>12842156.571428571</v>
+      </c>
+      <c r="G17" s="9">
+        <v>18221.428571428572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>256</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1.9054580999999998E-2</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1.1428571428571429E-2</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="E18" s="11">
+        <v>42586920.142857142</v>
+      </c>
+      <c r="F18" s="9">
+        <v>75363805</v>
+      </c>
+      <c r="G18" s="9">
+        <v>39081.571428571428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>512</v>
+      </c>
+      <c r="B19" s="11">
+        <v>9.9133495999999988E-2</v>
+      </c>
+      <c r="C19" s="11">
+        <v>9.4285714285714278E-2</v>
+      </c>
+      <c r="D19" s="11">
+        <v>9.1428571428571415E-2</v>
+      </c>
+      <c r="E19" s="11">
+        <v>300307176.14285713</v>
+      </c>
+      <c r="F19" s="9">
+        <v>559965206.14285719</v>
+      </c>
+      <c r="G19" s="9">
+        <v>131380.28571428571</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>1024</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.84402370528571424</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.84142857142857153</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.82714285714285729</v>
+      </c>
+      <c r="E20" s="11">
+        <v>2693262568.5714288</v>
+      </c>
+      <c r="F20" s="9">
+        <v>4377135428.7142859</v>
+      </c>
+      <c r="G20" s="9">
+        <v>6018264.4285714282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2048</v>
+      </c>
+      <c r="B21" s="11">
+        <v>7.5667881842857145</v>
+      </c>
+      <c r="C21" s="11">
+        <v>7.5828571428571427</v>
+      </c>
+      <c r="D21" s="11">
+        <v>7.53</v>
+      </c>
+      <c r="E21" s="11">
+        <v>24265234448.285713</v>
+      </c>
+      <c r="F21" s="9">
+        <v>34684148918.85714</v>
+      </c>
+      <c r="G21" s="9">
+        <v>84537897.857142851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2.7832117342571432</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2.7659999999999996</v>
+      </c>
+      <c r="D22" s="11">
+        <v>2.7528571428571431</v>
+      </c>
+      <c r="E22" s="11">
+        <v>8927052610.0857143</v>
+      </c>
+      <c r="F22" s="9">
+        <v>19708437752.285713</v>
+      </c>
+      <c r="G22" s="9">
+        <v>12175779.142857144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>128</v>
+      </c>
+      <c r="B23" s="11">
+        <v>7.421049571428571E-3</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>13111630.428571429</v>
+      </c>
+      <c r="F23" s="9">
+        <v>25031278.571428571</v>
+      </c>
+      <c r="G23" s="9">
+        <v>17952.857142857141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>256</v>
+      </c>
+      <c r="B24" s="11">
+        <v>3.017694585714286E-2</v>
+      </c>
+      <c r="C24" s="11">
+        <v>2.4285714285714282E-2</v>
+      </c>
+      <c r="D24" s="11">
+        <v>2.1428571428571429E-2</v>
+      </c>
+      <c r="E24" s="11">
+        <v>78009004</v>
+      </c>
+      <c r="F24" s="9">
+        <v>174798354.57142857</v>
+      </c>
+      <c r="G24" s="9">
+        <v>38067.571428571428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>512</v>
+      </c>
+      <c r="B25" s="11">
+        <v>0.18362562285714285</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0.17571428571428568</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0.17428571428571424</v>
+      </c>
+      <c r="E25" s="11">
+        <v>571257571.28571427</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1361043006.4285715</v>
+      </c>
+      <c r="G25" s="9">
+        <v>133014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>1024</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1.4932036495714287</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1.475714285714286</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1.4642857142857142</v>
+      </c>
+      <c r="E26" s="11">
+        <v>4777305433.7142859</v>
+      </c>
+      <c r="F26" s="9">
+        <v>10805660815.571428</v>
+      </c>
+      <c r="G26" s="9">
+        <v>4564582.7142857146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>2048</v>
+      </c>
+      <c r="B27" s="11">
+        <v>12.20163140342857</v>
+      </c>
+      <c r="C27" s="11">
+        <v>12.154285714285717</v>
+      </c>
+      <c r="D27" s="11">
+        <v>12.104285714285714</v>
+      </c>
+      <c r="E27" s="11">
+        <v>39195579411</v>
+      </c>
+      <c r="F27" s="9">
+        <v>86175655306.285721</v>
+      </c>
+      <c r="G27" s="9">
+        <v>56125278.571428575</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1.6825991210857143</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1.6837142857142855</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1.6691428571428573</v>
+      </c>
+      <c r="E28" s="11">
+        <v>5383213847.8285713</v>
+      </c>
+      <c r="F28" s="9">
+        <v>7939110605.257143</v>
+      </c>
+      <c r="G28" s="9">
+        <v>18073770.114285715</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>128</v>
+      </c>
+      <c r="B29" s="11">
+        <v>4.3125074285714285E-3</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <v>7176161.7142857146</v>
+      </c>
+      <c r="F29" s="9">
+        <v>12645533.571428571</v>
+      </c>
+      <c r="G29" s="9">
+        <v>18212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>256</v>
+      </c>
+      <c r="B30" s="11">
+        <v>1.887582485714286E-2</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="E30" s="11">
+        <v>42018133.857142858</v>
+      </c>
+      <c r="F30" s="9">
+        <v>74920953.571428567</v>
+      </c>
+      <c r="G30" s="9">
+        <v>38134.285714285717</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>512</v>
+      </c>
+      <c r="B31" s="11">
+        <v>9.8432576428571422E-2</v>
+      </c>
+      <c r="C31" s="11">
+        <v>9.1428571428571415E-2</v>
+      </c>
+      <c r="D31" s="11">
+        <v>8.9999999999999983E-2</v>
+      </c>
+      <c r="E31" s="11">
+        <v>295008982.71428573</v>
+      </c>
+      <c r="F31" s="9">
+        <v>558787814.14285719</v>
+      </c>
+      <c r="G31" s="9">
+        <v>129832</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>1024</v>
+      </c>
+      <c r="B32" s="11">
+        <v>0.83152970971428564</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0.8242857142857144</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0.80714285714285705</v>
+      </c>
+      <c r="E32" s="11">
+        <v>2661413378</v>
+      </c>
+      <c r="F32" s="9">
+        <v>4373834451.7142859</v>
+      </c>
+      <c r="G32" s="9">
+        <v>5837689.1428571427</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>2048</v>
+      </c>
+      <c r="B33" s="11">
+        <v>7.4598449869999994</v>
+      </c>
+      <c r="C33" s="11">
+        <v>7.4928571428571429</v>
+      </c>
+      <c r="D33" s="11">
+        <v>7.4385714285714277</v>
+      </c>
+      <c r="E33" s="11">
+        <v>23910452582.857143</v>
+      </c>
+      <c r="F33" s="9">
+        <v>34675364273.285713</v>
+      </c>
+      <c r="G33" s="9">
+        <v>84344983.142857149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="11">
+        <v>1.5853453205085719</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1.5774285714285712</v>
+      </c>
+      <c r="D34" s="11">
+        <v>1.9511428571428564</v>
+      </c>
+      <c r="E34" s="11">
+        <v>6288603758.9657145</v>
+      </c>
+      <c r="F34" s="9">
+        <v>10677021178.582857</v>
+      </c>
+      <c r="G34" s="9">
+        <v>12174218.891428571</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="C178" sqref="A177:XFD178"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -960,7 +3924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -989,7 +3953,7 @@
         <v>6206188</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1018,7 +3982,7 @@
         <v>18277</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1047,7 +4011,7 @@
         <v>82591073</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1076,7 +4040,7 @@
         <v>38604</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1105,7 +4069,7 @@
         <v>134028</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1134,7 +4098,7 @@
         <v>4530583</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1163,7 +4127,7 @@
         <v>18078</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1192,7 +4156,7 @@
         <v>56323428</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1221,7 +4185,7 @@
         <v>37950</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1250,7 +4214,7 @@
         <v>133622</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1279,7 +4243,7 @@
         <v>5722155</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1308,7 +4272,7 @@
         <v>18326</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1337,7 +4301,7 @@
         <v>84299012</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1366,7 +4330,7 @@
         <v>38389</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1395,7 +4359,7 @@
         <v>129673</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1424,7 +4388,7 @@
         <v>1373305</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1453,7 +4417,7 @@
         <v>16130</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1482,7 +4446,7 @@
         <v>44282604</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1511,7 +4475,7 @@
         <v>36549</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1540,7 +4504,7 @@
         <v>131387</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1569,7 +4533,7 @@
         <v>955034</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1598,7 +4562,7 @@
         <v>23169</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1627,7 +4591,7 @@
         <v>12981319</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1656,7 +4620,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1685,7 +4649,7 @@
         <v>148288</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1714,7 +4678,7 @@
         <v>5667862</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1743,7 +4707,7 @@
         <v>18305</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1772,7 +4736,7 @@
         <v>81787529</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1801,7 +4765,7 @@
         <v>38356</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1830,7 +4794,7 @@
         <v>128399</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1859,7 +4823,7 @@
         <v>4796990</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1888,7 +4852,7 @@
         <v>17723</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1917,7 +4881,7 @@
         <v>55471276</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1946,7 +4910,7 @@
         <v>38139</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1975,7 +4939,7 @@
         <v>130458</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2004,7 +4968,7 @@
         <v>5599718</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2033,7 +4997,7 @@
         <v>17827</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2062,7 +5026,7 @@
         <v>88778275</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2091,7 +5055,7 @@
         <v>37901</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2120,7 +5084,7 @@
         <v>136893</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2149,7 +5113,7 @@
         <v>1462502</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2178,7 +5142,7 @@
         <v>15815</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2207,7 +5171,7 @@
         <v>45388836</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2236,7 +5200,7 @@
         <v>40350</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2265,7 +5229,7 @@
         <v>143892</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2294,7 +5258,7 @@
         <v>901803</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2323,7 +5287,7 @@
         <v>24757</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2352,7 +5316,7 @@
         <v>21218068</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2381,7 +5345,7 @@
         <v>46071</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2410,7 +5374,7 @@
         <v>146378</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2439,7 +5403,7 @@
         <v>7949750</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -2468,7 +5432,7 @@
         <v>19638</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2497,7 +5461,7 @@
         <v>97452931</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2526,7 +5490,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -2555,7 +5519,7 @@
         <v>147919</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -2584,7 +5548,7 @@
         <v>4565042</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -2613,7 +5577,7 @@
         <v>18677</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2642,7 +5606,7 @@
         <v>57878242</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -2671,7 +5635,7 @@
         <v>39278</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2700,7 +5664,7 @@
         <v>130870</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -2729,7 +5693,7 @@
         <v>6089123</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2758,7 +5722,7 @@
         <v>17654</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2787,7 +5751,7 @@
         <v>85373926</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2816,7 +5780,7 @@
         <v>38101</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2845,7 +5809,7 @@
         <v>128129</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2874,7 +5838,7 @@
         <v>1228097</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2903,7 +5867,7 @@
         <v>16329</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2932,7 +5896,7 @@
         <v>44166898</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -2961,7 +5925,7 @@
         <v>36328</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -2990,7 +5954,7 @@
         <v>125395</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
@@ -3019,7 +5983,7 @@
         <v>849647</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -3048,7 +6012,7 @@
         <v>23162</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -3077,7 +6041,7 @@
         <v>12431976</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -3106,7 +6070,7 @@
         <v>43033</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -3135,7 +6099,7 @@
         <v>138229</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -3164,7 +6128,7 @@
         <v>5609197</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -3193,7 +6157,7 @@
         <v>17695</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -3222,7 +6186,7 @@
         <v>82367167</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -3251,7 +6215,7 @@
         <v>37571</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -3280,7 +6244,7 @@
         <v>126130</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3309,7 +6273,7 @@
         <v>4490552</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -3338,7 +6302,7 @@
         <v>17674</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -3367,7 +6331,7 @@
         <v>55508976</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -3396,7 +6360,7 @@
         <v>37160</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -3425,7 +6389,7 @@
         <v>131400</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -3454,7 +6418,7 @@
         <v>6118110</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -3483,7 +6447,7 @@
         <v>17820</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3</v>
       </c>
@@ -3512,7 +6476,7 @@
         <v>81790278</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -3541,7 +6505,7 @@
         <v>37996</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -3570,7 +6534,7 @@
         <v>126186</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3</v>
       </c>
@@ -3599,7 +6563,7 @@
         <v>1333199</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3</v>
       </c>
@@ -3628,7 +6592,7 @@
         <v>16486</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -3657,7 +6621,7 @@
         <v>45264969</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3</v>
       </c>
@@ -3686,7 +6650,7 @@
         <v>36525</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3</v>
       </c>
@@ -3715,7 +6679,7 @@
         <v>126721</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3</v>
       </c>
@@ -3744,7 +6708,7 @@
         <v>834010</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3</v>
       </c>
@@ -3773,7 +6737,7 @@
         <v>23280</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3</v>
       </c>
@@ -3802,7 +6766,7 @@
         <v>14749121</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3</v>
       </c>
@@ -3831,7 +6795,7 @@
         <v>43022</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3</v>
       </c>
@@ -3860,7 +6824,7 @@
         <v>139149</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -3889,7 +6853,7 @@
         <v>5897477</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
@@ -3918,7 +6882,7 @@
         <v>17866</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4</v>
       </c>
@@ -3947,7 +6911,7 @@
         <v>81091137</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4</v>
       </c>
@@ -3976,7 +6940,7 @@
         <v>39503</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4</v>
       </c>
@@ -4005,7 +6969,7 @@
         <v>126385</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4</v>
       </c>
@@ -4034,7 +6998,7 @@
         <v>4696902</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4</v>
       </c>
@@ -4063,7 +7027,7 @@
         <v>17794</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4</v>
       </c>
@@ -4092,7 +7056,7 @@
         <v>55410998</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4</v>
       </c>
@@ -4121,7 +7085,7 @@
         <v>38421</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4</v>
       </c>
@@ -4150,7 +7114,7 @@
         <v>134492</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>4</v>
       </c>
@@ -4179,7 +7143,7 @@
         <v>5622332</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4</v>
       </c>
@@ -4208,7 +7172,7 @@
         <v>20080</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>4</v>
       </c>
@@ -4237,7 +7201,7 @@
         <v>83033790</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>4</v>
       </c>
@@ -4266,7 +7230,7 @@
         <v>38180</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>4</v>
       </c>
@@ -4295,7 +7259,7 @@
         <v>126289</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>4</v>
       </c>
@@ -4324,7 +7288,7 @@
         <v>1463272</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>4</v>
       </c>
@@ -4353,7 +7317,7 @@
         <v>16398</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>4</v>
       </c>
@@ -4382,7 +7346,7 @@
         <v>45812241</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>4</v>
       </c>
@@ -4411,7 +7375,7 @@
         <v>36635</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>4</v>
       </c>
@@ -4440,7 +7404,7 @@
         <v>127616</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4</v>
       </c>
@@ -4469,7 +7433,7 @@
         <v>863172</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4</v>
       </c>
@@ -4498,7 +7462,7 @@
         <v>23460</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4</v>
       </c>
@@ -4527,7 +7491,7 @@
         <v>16428840</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4</v>
       </c>
@@ -4556,7 +7520,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>4</v>
       </c>
@@ -4585,7 +7549,7 @@
         <v>139251</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5</v>
       </c>
@@ -4614,7 +7578,7 @@
         <v>5387901</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -4643,7 +7607,7 @@
         <v>17908</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5</v>
       </c>
@@ -4672,7 +7636,7 @@
         <v>82498308</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>5</v>
       </c>
@@ -4701,7 +7665,7 @@
         <v>38280</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5</v>
       </c>
@@ -4730,7 +7694,7 @@
         <v>129394</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>5</v>
       </c>
@@ -4759,7 +7723,7 @@
         <v>4448651</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>5</v>
       </c>
@@ -4788,7 +7752,7 @@
         <v>18262</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>5</v>
       </c>
@@ -4817,7 +7781,7 @@
         <v>55573918</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>5</v>
       </c>
@@ -4846,7 +7810,7 @@
         <v>37721</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>5</v>
       </c>
@@ -4875,7 +7839,7 @@
         <v>130508</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>5</v>
       </c>
@@ -4904,7 +7868,7 @@
         <v>5944342</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>5</v>
       </c>
@@ -4933,7 +7897,7 @@
         <v>17961</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>5</v>
       </c>
@@ -4962,7 +7926,7 @@
         <v>82904822</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>5</v>
       </c>
@@ -4991,7 +7955,7 @@
         <v>37863</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>5</v>
       </c>
@@ -5020,7 +7984,7 @@
         <v>128800</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>5</v>
       </c>
@@ -5049,7 +8013,7 @@
         <v>1230832</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>5</v>
       </c>
@@ -5078,7 +8042,7 @@
         <v>16338</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>5</v>
       </c>
@@ -5107,7 +8071,7 @@
         <v>44223985</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>5</v>
       </c>
@@ -5136,7 +8100,7 @@
         <v>36257</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>5</v>
       </c>
@@ -5165,7 +8129,7 @@
         <v>132838</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>5</v>
       </c>
@@ -5194,7 +8158,7 @@
         <v>913810</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>5</v>
       </c>
@@ -5223,7 +8187,7 @@
         <v>22925</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>5</v>
       </c>
@@ -5252,7 +8216,7 @@
         <v>12060754</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5</v>
       </c>
@@ -5281,7 +8245,7 @@
         <v>42784</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>5</v>
       </c>
@@ -5310,7 +8274,7 @@
         <v>140568</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6</v>
       </c>
@@ -5339,7 +8303,7 @@
         <v>5409476</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>6</v>
       </c>
@@ -5368,7 +8332,7 @@
         <v>17861</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>6</v>
       </c>
@@ -5397,7 +8361,7 @@
         <v>83977140</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>6</v>
       </c>
@@ -5426,7 +8390,7 @@
         <v>38113</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>6</v>
       </c>
@@ -5455,7 +8419,7 @@
         <v>127407</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>6</v>
       </c>
@@ -5484,7 +8448,7 @@
         <v>4423359</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>6</v>
       </c>
@@ -5513,7 +8477,7 @@
         <v>17462</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>6</v>
       </c>
@@ -5542,7 +8506,7 @@
         <v>56710112</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>6</v>
       </c>
@@ -5571,7 +8535,7 @@
         <v>37804</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>6</v>
       </c>
@@ -5600,7 +8564,7 @@
         <v>139748</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>6</v>
       </c>
@@ -5629,7 +8593,7 @@
         <v>5768044</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>6</v>
       </c>
@@ -5658,7 +8622,7 @@
         <v>17816</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>6</v>
       </c>
@@ -5687,7 +8651,7 @@
         <v>84234779</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>6</v>
       </c>
@@ -5716,7 +8680,7 @@
         <v>38510</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>6</v>
       </c>
@@ -5745,7 +8709,7 @@
         <v>132854</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>6</v>
       </c>
@@ -5774,7 +8738,7 @@
         <v>1111771</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>6</v>
       </c>
@@ -5803,7 +8767,7 @@
         <v>16437</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>6</v>
       </c>
@@ -5832,7 +8796,7 @@
         <v>45695616</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>6</v>
       </c>
@@ -5861,7 +8825,7 @@
         <v>36495</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>6</v>
       </c>
@@ -5890,7 +8854,7 @@
         <v>127920</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>6</v>
       </c>
@@ -5919,7 +8883,7 @@
         <v>892775</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>6</v>
       </c>
@@ -5948,7 +8912,7 @@
         <v>25699</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>6</v>
       </c>
@@ -5977,7 +8941,7 @@
         <v>13666754</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>6</v>
       </c>
@@ -6006,7 +8970,7 @@
         <v>44117</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>6</v>
       </c>
@@ -6035,7 +8999,7 @@
         <v>141930</v>
       </c>
     </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B177" s="3"/>
       <c r="C177" s="1"/>
       <c r="D177" s="4">
@@ -6066,7 +9030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B178" s="3"/>
       <c r="C178" s="1"/>
       <c r="D178" s="4">
